--- a/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/DOC-v1.xlsx
+++ b/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/DOC-v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Cuarto\Diseño de Infraestructuras Informaticas\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Cuarto\Diseño de Infraestructuras Informaticas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5DE40B-46FA-484A-A9FD-50040D96C7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8B5F11-B871-42BE-9B72-D84BFF81E369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENTACIÓN" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,49 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -343,39 +385,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,15 +392,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -415,16 +415,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>163691</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -453,8 +453,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7639050" y="9525"/>
-          <a:ext cx="7772400" cy="5392916"/>
+          <a:off x="7741920" y="9524"/>
+          <a:ext cx="8199120" cy="5469256"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,64 +732,64 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -798,39 +798,39 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="13" t="s">
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21"/>
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="12" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/DOC-v1.xlsx
+++ b/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/DOC-v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Cuarto\Diseño de Infraestructuras Informaticas\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Cuarto\Diseño de Infraestructuras Informaticas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8B5F11-B871-42BE-9B72-D84BFF81E369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69D039C-7974-4DB1-9D96-A5C127F033A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENTACIÓN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>MYSQL</t>
   </si>
@@ -70,13 +70,49 @@
   </si>
   <si>
     <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>DATA PATH</t>
+  </si>
+  <si>
+    <t>PATH NFS</t>
+  </si>
+  <si>
+    <t>WEKAN</t>
+  </si>
+  <si>
+    <t>JELLYFIN</t>
+  </si>
+  <si>
+    <t>/var/www/html/owncloud/data</t>
+  </si>
+  <si>
+    <t>DATOS DE APLICACIONES</t>
+  </si>
+  <si>
+    <t>/usr/share/wordpress/wp-content</t>
+  </si>
+  <si>
+    <t>10.0.16.44:/shared/owncloud</t>
+  </si>
+  <si>
+    <t>10.0.16.44:/shared/wordpress</t>
+  </si>
+  <si>
+    <t>/home/jellyfin</t>
+  </si>
+  <si>
+    <t>10.0.16.44:/shared/jellyfin</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +141,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +175,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -329,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -393,6 +443,42 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,8 +509,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -729,22 +815,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -753,7 +839,7 @@
       <c r="D1" s="17"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -770,7 +856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -787,7 +873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
@@ -802,7 +888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>5</v>
       </c>
@@ -819,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
@@ -834,11 +920,75 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/DOC-v1.xlsx
+++ b/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/DOC-v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Cuarto\Diseño de Infraestructuras Informaticas\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Cuarto\Diseño de Infraestructuras Informaticas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69D039C-7974-4DB1-9D96-A5C127F033A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ED8014-F43D-4AF9-8B1E-D077E08FE735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENTACIÓN" sheetId="1" r:id="rId1"/>
@@ -60,12 +60,6 @@
     <t>wordpress</t>
   </si>
   <si>
-    <t>10.0.16.56</t>
-  </si>
-  <si>
-    <t>vm-16-056.ho.ac.uma.es</t>
-  </si>
-  <si>
     <t>localhost</t>
   </si>
   <si>
@@ -106,13 +100,19 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>10.0.16.50</t>
+  </si>
+  <si>
+    <t>vm-16-050.ho.ac.uma.es</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +143,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -379,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -426,6 +434,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -442,33 +459,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -480,6 +470,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -817,29 +808,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -856,8 +847,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -867,14 +858,14 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -882,14 +873,14 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -899,14 +890,14 @@
         <v>8</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -914,73 +905,74 @@
         <v>8</v>
       </c>
       <c r="D6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="28" t="s">
+      <c r="C13" s="12" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/DOC-v1.xlsx
+++ b/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/DOC-v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\Universidad\Cuarto\Diseño de Infraestructuras Informaticas\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Cuarto\Diseño de Infraestructuras Informaticas\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ED8014-F43D-4AF9-8B1E-D077E08FE735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5052EB9-C92E-4980-8EDF-2437FC7EC32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENTACIÓN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>MYSQL</t>
   </si>
@@ -63,9 +63,6 @@
     <t>localhost</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
     <t>DATA PATH</t>
   </si>
   <si>
@@ -106,13 +103,43 @@
   </si>
   <si>
     <t>vm-16-050.ho.ac.uma.es</t>
+  </si>
+  <si>
+    <t>10.0.16.45</t>
+  </si>
+  <si>
+    <t>Vc0910$$</t>
+  </si>
+  <si>
+    <t>vm-16-045.ho.ac.uma.es</t>
+  </si>
+  <si>
+    <t>10.0.16.46</t>
+  </si>
+  <si>
+    <t>vm-16-046.ho.ac.uma.es</t>
+  </si>
+  <si>
+    <t>REPLICACIÓN</t>
+  </si>
+  <si>
+    <t>repl</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>ROOT</t>
+  </si>
+  <si>
+    <t>root</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,14 +170,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -387,14 +406,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,7 +483,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +540,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -806,181 +845,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="C17" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/DOC-v1.xlsx
+++ b/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/DOC-v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Desktop\Universidad\Cuarto\Diseño de Infraestructuras Informaticas\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev-francm/Documents/Universidad/Archivos/Universidad/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5052EB9-C92E-4980-8EDF-2437FC7EC32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5D5C6-F329-9249-B3E0-65D9DA9A34FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENTACIÓN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>MYSQL</t>
   </si>
@@ -60,9 +60,6 @@
     <t>wordpress</t>
   </si>
   <si>
-    <t>localhost</t>
-  </si>
-  <si>
     <t>DATA PATH</t>
   </si>
   <si>
@@ -99,27 +96,9 @@
     <t>-</t>
   </si>
   <si>
-    <t>10.0.16.50</t>
-  </si>
-  <si>
-    <t>vm-16-050.ho.ac.uma.es</t>
-  </si>
-  <si>
-    <t>10.0.16.45</t>
-  </si>
-  <si>
     <t>Vc0910$$</t>
   </si>
   <si>
-    <t>vm-16-045.ho.ac.uma.es</t>
-  </si>
-  <si>
-    <t>10.0.16.46</t>
-  </si>
-  <si>
-    <t>vm-16-046.ho.ac.uma.es</t>
-  </si>
-  <si>
     <t>REPLICACIÓN</t>
   </si>
   <si>
@@ -133,15 +112,46 @@
   </si>
   <si>
     <t>root</t>
+  </si>
+  <si>
+    <t>SCSI TARGET</t>
+  </si>
+  <si>
+    <t>/clusterfs/owncloud</t>
+  </si>
+  <si>
+    <t>/clusterfs/wordpress</t>
+  </si>
+  <si>
+    <t>/clusterfs/jellyfin</t>
+  </si>
+  <si>
+    <t>PORTAINER</t>
+  </si>
+  <si>
+    <t>/clusterfs/docker/portainer-ce</t>
+  </si>
+  <si>
+    <t>DOCKER</t>
+  </si>
+  <si>
+    <t>/clusterfs/docker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -209,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -369,37 +379,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -408,106 +387,106 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,7 +519,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -845,231 +824,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="D6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="C15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="30" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="32" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="B20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="30" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="B21" s="31" t="s">
         <v>22</v>
       </c>
+      <c r="C21" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A14:D14"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/DOC-v1.xlsx
+++ b/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/DOC-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev-francm/Documents/Universidad/Archivos/Universidad/Cuarto/Diseño de Infraestructuras Informaticas/Documentación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F5D5C6-F329-9249-B3E0-65D9DA9A34FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1834CFF9-DC9B-AE43-999E-4B048E68F227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENTACIÓN" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>MYSQL</t>
   </si>
@@ -136,15 +136,55 @@
   </si>
   <si>
     <t>/clusterfs/docker</t>
+  </si>
+  <si>
+    <t>EJECUCIÓN DE APLICACIONES</t>
+  </si>
+  <si>
+    <t>MÁQUINA</t>
+  </si>
+  <si>
+    <t>PUERTO</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>10.0.16.56</t>
+  </si>
+  <si>
+    <t>10.0.16.45</t>
+  </si>
+  <si>
+    <t>10.0.16.45-46</t>
+  </si>
+  <si>
+    <t>http://10.0.16.45</t>
+  </si>
+  <si>
+    <t>http://10.0.16.45:9080</t>
+  </si>
+  <si>
+    <t>http://10.0.16.45:9000</t>
+  </si>
+  <si>
+    <t>http://10.0.16.56:8090</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -186,6 +226,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -382,115 +430,123 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,7 +575,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>139065</xdr:rowOff>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -824,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -840,13 +896,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -866,7 +922,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -875,24 +931,24 @@
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -900,41 +956,41 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="D5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -942,15 +998,15 @@
     </row>
     <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -964,7 +1020,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -973,7 +1029,7 @@
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -981,13 +1037,13 @@
       <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -995,13 +1051,13 @@
       <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="B18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1009,13 +1065,13 @@
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="21" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1023,13 +1079,13 @@
       <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="29" t="s">
+      <c r="B20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1037,24 +1093,138 @@
       <c r="A21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="32" t="s">
+      <c r="B21" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>36</v>
       </c>
     </row>
+    <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="2">
+        <v>80</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="16">
+        <v>80</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="16">
+        <v>9080</v>
+      </c>
+      <c r="D32" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="16">
+        <v>8090</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="17">
+        <v>9000</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A28:D28"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D32" r:id="rId1" xr:uid="{2E06F2A8-8A16-FE44-99F8-0EBE2E21922D}"/>
+    <hyperlink ref="D34" r:id="rId2" xr:uid="{850FAEEC-3502-1D48-9AB7-0FA9D85D8431}"/>
+    <hyperlink ref="D31" r:id="rId3" xr:uid="{61D98E96-EED2-484A-B7CC-DF017E88C515}"/>
+    <hyperlink ref="D33" r:id="rId4" xr:uid="{E8B25D35-4AEF-BB4F-B6FF-DC8B533036F4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>